--- a/src/assets/Workorder.xlsx
+++ b/src/assets/Workorder.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 11\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEB5380-18D6-4366-A073-452146FC0150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D98BBD9-754A-4CB4-AD9D-22A8F5F54563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,41 +45,41 @@
     <t>fabDia</t>
   </si>
   <si>
+    <t>knitSL</t>
+  </si>
+  <si>
+    <t>spinFty</t>
+  </si>
+  <si>
+    <t>knitFty</t>
+  </si>
+  <si>
+    <t>noRolls</t>
+  </si>
+  <si>
+    <t>orderNo</t>
+  </si>
+  <si>
     <t>fabGsm</t>
   </si>
   <si>
-    <t>yarnType</t>
-  </si>
-  <si>
-    <t>yarnCount</t>
-  </si>
-  <si>
-    <t>knitSL</t>
-  </si>
-  <si>
-    <t>spinFty</t>
-  </si>
-  <si>
-    <t>knitFty</t>
+    <t>greigeKg</t>
+  </si>
+  <si>
+    <t>finishedKg</t>
+  </si>
+  <si>
+    <t>yarnQty</t>
   </si>
   <si>
     <t>dyeingFty</t>
-  </si>
-  <si>
-    <t>yarnLot</t>
-  </si>
-  <si>
-    <t>orderNo</t>
-  </si>
-  <si>
-    <t>noRolls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +89,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,46 +434,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC1C3BB-E589-485C-B70D-8293BD206872}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -490,84 +491,36 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>11</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>11</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>